--- a/recruitment/src/main/resources/TestData/requisition.xlsx
+++ b/recruitment/src/main/resources/TestData/requisition.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FACA8FA-5855-4C9E-AE6D-11D140ADC930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83731A6F-6401-41EF-A272-66BBD7F70640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createrequisition" sheetId="1" r:id="rId1"/>
-    <sheet name="createReqPermissionHolder" sheetId="2" r:id="rId2"/>
-    <sheet name="ReqAddToExistingJobs" sheetId="4" r:id="rId3"/>
-    <sheet name="createReqAccessHolder" sheetId="3" r:id="rId4"/>
+    <sheet name="JobPosting" sheetId="5" r:id="rId2"/>
+    <sheet name="createReqPermissionHolder" sheetId="2" r:id="rId3"/>
+    <sheet name="ReqAddToExistingJobs" sheetId="4" r:id="rId4"/>
+    <sheet name="createReqAccessHolder" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -145,6 +146,39 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>To check Pages in Job Posting</t>
+  </si>
+  <si>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>VisibilityRoles</t>
+  </si>
+  <si>
+    <t>EdibilityRoles</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>fieldType</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>textfield</t>
+  </si>
+  <si>
+    <t>PANCARD</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -479,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,11 +625,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBD0173-6BC6-4FB4-8B94-2A2FC7DEDD8F}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CA4591-649E-4BFC-B971-D420A95FE883}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB42ABBE-4442-4A43-8AE3-5E91915F976B}">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -881,12 +1063,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F74F4EC-F0B3-414E-AF7A-8EB3A88F2322}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/recruitment/src/main/resources/TestData/requisition.xlsx
+++ b/recruitment/src/main/resources/TestData/requisition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Automation_Project\recruitment\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83731A6F-6401-41EF-A272-66BBD7F70640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475EDF84-29CF-4885-841F-40ADABFCE791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/recruitment/src/main/resources/TestData/requisition.xlsx
+++ b/recruitment/src/main/resources/TestData/requisition.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Automation_Project\recruitment\src\main\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\Desktop\Automation_Project\recruitment\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475EDF84-29CF-4885-841F-40ADABFCE791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4F6D74-402B-4E4A-A4AE-55659EC56462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createrequisition" sheetId="1" r:id="rId1"/>
-    <sheet name="JobPosting" sheetId="5" r:id="rId2"/>
-    <sheet name="createReqPermissionHolder" sheetId="2" r:id="rId3"/>
-    <sheet name="ReqAddToExistingJobs" sheetId="4" r:id="rId4"/>
-    <sheet name="createReqAccessHolder" sheetId="3" r:id="rId5"/>
+    <sheet name="ReqBase" sheetId="6" r:id="rId2"/>
+    <sheet name="JobPosting" sheetId="5" r:id="rId3"/>
+    <sheet name="createReqPermissionHolder" sheetId="2" r:id="rId4"/>
+    <sheet name="ReqAddToExistingJobs" sheetId="4" r:id="rId5"/>
+    <sheet name="createReqAccessHolder" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -179,6 +180,72 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>To test requisition testbase</t>
+  </si>
+  <si>
+    <t>reqType</t>
+  </si>
+  <si>
+    <t>205403</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>TO test designation hiring lead raising requisition</t>
+  </si>
+  <si>
+    <t>To test requisition raising</t>
+  </si>
+  <si>
+    <t>To test designation hiring lead raising requisition</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>To test hiring lead</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>To test HOD</t>
+  </si>
+  <si>
+    <t>To test Permission roleHolder</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>To test Rec Admin</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>To test access holders</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>To check Position based settings</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>To test No role access holders</t>
   </si>
 </sst>
 </file>
@@ -514,7 +581,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>
@@ -625,11 +692,141 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B2D3F0-9CE4-458F-8164-CA52B5B2366F}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBD0173-6BC6-4FB4-8B94-2A2FC7DEDD8F}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,12 +969,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CA4591-649E-4BFC-B971-D420A95FE883}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,12 +1097,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB42ABBE-4442-4A43-8AE3-5E91915F976B}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,7 +1260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F74F4EC-F0B3-414E-AF7A-8EB3A88F2322}">
   <dimension ref="A1:B2"/>
   <sheetViews>
